--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -331,7 +331,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.8+dfsg-1~bpo11+1</t>
+    <t>6.0.9+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -331,7 +331,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.9+dfsg-1~bpo11+1</t>
+    <t>6.0.10+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1057,7 +1057,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1670,7 +1670,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -319,19 +319,19 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>r1</t>
+    <t>${git_hash}</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2020-09-09</t>
+    <t>${date}</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.10+dfsg-1~bpo11+1</t>
+    <t>6.0.11+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -676,7 +676,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -691,7 +691,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -719,7 +728,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -734,7 +743,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1342,7 +1360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.0" customHeight="1">
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45.0" customHeight="1">
+    <row r="15" spans="1:12" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.0" customHeight="1">
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
@@ -1494,7 +1512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30.0" customHeight="1">
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.0" customHeight="1">
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45.0" customHeight="1">
+    <row r="12" spans="1:12" ht="45" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45.0" customHeight="1">
+    <row r="13" spans="1:12" ht="45" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -331,7 +331,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.11+dfsg-1~bpo11+1</t>
+    <t>6.0.11+dfsg-1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1075,7 +1075,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1688,7 +1688,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -331,7 +331,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.11+dfsg-1</t>
+    <t>7.0.10-7.0.10~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1075,7 +1075,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1688,7 +1688,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -319,13 +319,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>${git_hash}</t>
+    <t>WIP</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>${date}</t>
+    <t>Today</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="149">
   <si>
     <t>Row</t>
   </si>
@@ -61,7 +61,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
@@ -85,9 +85,6 @@
     <t>~</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
     <t>C_Polarized</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>MAL215371479E3</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>DC Barrel Jack with an internal switch</t>
-  </si>
-  <si>
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x05, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_01x05_Male</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_01x06_Male</t>
   </si>
   <si>
@@ -256,9 +232,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -283,9 +256,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>16MHz, 8kB Flash, 512B SRAM, 512B EEPROM, TQFP-32</t>
-  </si>
-  <si>
     <t>ATmega8U2-A</t>
   </si>
   <si>
@@ -331,7 +301,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.10-7.0.10~ubuntu23.04.1</t>
+    <t>8.0.1+dfsg-1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -367,9 +337,6 @@
     <t>+USB,+XTAL</t>
   </si>
   <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
     <t>Polyfuse</t>
   </si>
   <si>
@@ -388,9 +355,6 @@
     <t>+USB</t>
   </si>
   <si>
-    <t>Ferrite bead</t>
-  </si>
-  <si>
     <t>FerriteBead</t>
   </si>
   <si>
@@ -406,9 +370,6 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
@@ -427,9 +388,6 @@
     <t>M20-9980246-ND</t>
   </si>
   <si>
-    <t>USB Type B connector</t>
-  </si>
-  <si>
     <t>USB_B</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>1M</t>
   </si>
   <si>
-    <t>Voltage dependent resistor</t>
-  </si>
-  <si>
     <t>Varistor</t>
   </si>
   <si>
@@ -479,9 +434,6 @@
   </si>
   <si>
     <t>Bourns Inc.</t>
-  </si>
-  <si>
-    <t>Two pin crystal</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -574,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,19 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFE6F9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +636,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -736,8 +688,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1073,9 +1025,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1088,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1102,13 +1054,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1116,41 +1068,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1158,13 +1110,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>18</v>
@@ -1233,75 +1185,75 @@
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>21</v>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -1310,150 +1262,150 @@
         <v>19</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>21</v>
+      <c r="J12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="J14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>12</v>
@@ -1462,74 +1414,74 @@
         <v>19</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="F16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -1537,75 +1489,75 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>21</v>
+      <c r="J17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>21</v>
+      <c r="J18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1613,55 +1565,55 @@
       <c r="H19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>21</v>
+      <c r="J19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="A20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>21</v>
+      <c r="I20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1686,9 +1638,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
@@ -1701,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1715,13 +1667,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1729,41 +1681,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1771,13 +1723,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>18</v>
@@ -1832,335 +1784,335 @@
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>21</v>
+      <c r="H10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>21</v>
+      <c r="J14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="J15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>149</v>
+      <c r="H16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>160</v>
+        <v>142</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2186,22 +2138,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>163</v>
+      <c r="A3" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>164</v>
+      <c r="A4" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="153">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,18 @@
     <t>10</t>
   </si>
   <si>
+    <t>Logo_Open_Hardware_Large</t>
+  </si>
+  <si>
+    <t>LOGO1</t>
+  </si>
+  <si>
+    <t>OSHW-Logo_11.4x12mm_SilkScreen</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -244,7 +256,7 @@
     <t>R_0805_2012Metric</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>R4</t>
@@ -253,7 +265,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>ATmega8U2-A</t>
@@ -310,13 +322,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>30 (25 SMD/ 5 THT)</t>
+    <t>31 (25 SMD/ 5 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>18 (15 SMD/ 3 THT)</t>
+    <t>19 (15 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1015,7 +1027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1026,9 +1038,9 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -1040,7 +1052,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1054,55 +1066,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1110,16 +1122,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1516,13 +1528,13 @@
         <v>71</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>19</v>
@@ -1542,13 +1554,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>75</v>
@@ -1557,10 +1569,10 @@
         <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>19</v>
@@ -1580,13 +1592,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>79</v>
@@ -1595,7 +1607,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>12</v>
@@ -1603,16 +1615,54 @@
       <c r="H20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1653,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1667,55 +1717,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1723,16 +1773,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1784,10 +1834,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>17</v>
@@ -1796,13 +1846,13 @@
         <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>13</v>
@@ -1819,28 +1869,28 @@
         <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>13</v>
@@ -1857,34 +1907,34 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="K11" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1895,34 +1945,34 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>57</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" customHeight="1">
@@ -1933,34 +1983,34 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1971,28 +2021,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>13</v>
@@ -2009,28 +2059,28 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>13</v>
@@ -2047,34 +2097,34 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2085,34 +2135,34 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2138,22 +2188,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>Row</t>
   </si>
@@ -58,33 +58,51 @@
     <t>MFP</t>
   </si>
   <si>
+    <t>Sim.Name</t>
+  </si>
+  <si>
+    <t>Sim.Device</t>
+  </si>
+  <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
+    <t>Sim.Params</t>
+  </si>
+  <si>
+    <t>Sim.Library</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>Unpolarized capacitor</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C2 C6 C7 C8</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C2 C6 C7 C8</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
     <t>C_Polarized</t>
   </si>
   <si>
@@ -109,15 +130,15 @@
     <t>CP_Elec_8x10</t>
   </si>
   <si>
-    <t>https://www.vishay.com/docs/28388/153crv.pdf</t>
-  </si>
-  <si>
     <t>Vishay Beyschlag/Draloric/BC Components</t>
   </si>
   <si>
     <t>MAL215371479E3</t>
   </si>
   <si>
+    <t>Diode</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -130,9 +151,15 @@
     <t>D_1206_3216Metric</t>
   </si>
   <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
     <t>LED</t>
   </si>
   <si>
@@ -142,9 +169,6 @@
     <t>LED_0805_2012Metric</t>
   </si>
   <si>
-    <t>https://dammedia.osram.info/media/resource/hires/osram-dam-2493936/LG%20R971.pdf</t>
-  </si>
-  <si>
     <t>OSRAM Opto Semiconductors Inc.</t>
   </si>
   <si>
@@ -154,6 +178,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
     <t>Barrel_Jack_Switch</t>
   </si>
   <si>
@@ -163,9 +190,6 @@
     <t>BarrelJack_CLIFF_FC681465S_SMT_Horizontal</t>
   </si>
   <si>
-    <t>https://www.we-online.de/katalog/datasheet/6941xx106102.pdf</t>
-  </si>
-  <si>
     <t>Würth Elektronik</t>
   </si>
   <si>
@@ -175,6 +199,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
@@ -187,9 +214,6 @@
     <t>PinHeader_2x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>https://cdn.harwin.com/pdfs/M20-998.pdf</t>
-  </si>
-  <si>
     <t>-USB</t>
   </si>
   <si>
@@ -202,7 +226,10 @@
     <t>8</t>
   </si>
   <si>
-    <t>Conn_01x05_Male</t>
+    <t>Generic connector, single row, 01x05, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x05_Pin</t>
   </si>
   <si>
     <t>J3</t>
@@ -217,7 +244,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>Conn_01x06_Male</t>
+    <t>Generic connector, single row, 01x06, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x06_Pin</t>
   </si>
   <si>
     <t>J6</t>
@@ -232,6 +262,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>Open Hardware logo, large</t>
+  </si>
+  <si>
     <t>Logo_Open_Hardware_Large</t>
   </si>
   <si>
@@ -244,6 +277,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>Resistor</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -268,6 +304,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>16MHz, 8kB Flash, 512B SRAM, 512B EEPROM, TQFP-32</t>
+  </si>
+  <si>
     <t>ATmega8U2-A</t>
   </si>
   <si>
@@ -349,6 +388,9 @@
     <t>+USB,+XTAL</t>
   </si>
   <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
     <t>Polyfuse</t>
   </si>
   <si>
@@ -361,12 +403,12 @@
     <t>R_1812_4532Metric</t>
   </si>
   <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/mfmsmf.pdf</t>
-  </si>
-  <si>
     <t>+USB</t>
   </si>
   <si>
+    <t>Ferrite bead</t>
+  </si>
+  <si>
     <t>FerriteBead</t>
   </si>
   <si>
@@ -376,12 +418,12 @@
     <t>BLM21PG221SN1D</t>
   </si>
   <si>
-    <t>https://www.murata.com/en-eu/api/pdfdownloadapi?cate=cgsubChipFerriBead&amp;partno=BLM21PG221SN1%23</t>
-  </si>
-  <si>
     <t>Murata</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
@@ -400,6 +442,9 @@
     <t>M20-9980246-ND</t>
   </si>
   <si>
+    <t>USB Type B connector</t>
+  </si>
+  <si>
     <t>USB_B</t>
   </si>
   <si>
@@ -409,9 +454,6 @@
     <t>USB_B_Lumberg_2411_02_Horizontal</t>
   </si>
   <si>
-    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=292304&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
-  </si>
-  <si>
     <t>TE Connectivity AMP Connectors</t>
   </si>
   <si>
@@ -430,6 +472,9 @@
     <t>1M</t>
   </si>
   <si>
+    <t>Voltage dependent resistor</t>
+  </si>
+  <si>
     <t>Varistor</t>
   </si>
   <si>
@@ -442,12 +487,27 @@
     <t>R_0603_1608Metric</t>
   </si>
   <si>
-    <t>https://www.bourns.com/docs/Product-Datasheets/MLC.pdf</t>
-  </si>
-  <si>
     <t>Bourns Inc.</t>
   </si>
   <si>
+    <t>kicad_builtin_varistor</t>
+  </si>
+  <si>
+    <t>SUBCKT</t>
+  </si>
+  <si>
+    <t>1=A 2=B</t>
+  </si>
+  <si>
+    <t>threshold=1k</t>
+  </si>
+  <si>
+    <t>/usr/share/kicad/symbols/Simulation_SPICE.sp</t>
+  </si>
+  <si>
+    <t>Two pin crystal</t>
+  </si>
+  <si>
     <t>Crystal</t>
   </si>
   <si>
@@ -458,9 +518,6 @@
   </si>
   <si>
     <t>Crystal_SMD_Abracon_ABM3-2Pin_5.0x3.2mm</t>
-  </si>
-  <si>
-    <t>https://www.foxonline.com/pdfs/C4ST.pdf</t>
   </si>
   <si>
     <t>Abracon LLC</t>
@@ -538,7 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFE6F9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,8 +705,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -700,8 +757,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1027,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1037,7 +1094,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
@@ -1048,11 +1105,16 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="44.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1063,78 +1125,83 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1171,504 +1238,714 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="I12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="J12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="I19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1678,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1688,22 +1965,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="35.7109375" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:17" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1714,78 +1996,83 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1822,352 +2109,502 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="H10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="K15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2188,22 +2625,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
-        <v>151</v>
+      <c r="A3" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>152</v>
+      <c r="A4" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="174">
   <si>
     <t>Row</t>
   </si>
@@ -52,10 +52,10 @@
     <t>Config</t>
   </si>
   <si>
-    <t>MFN</t>
-  </si>
-  <si>
-    <t>MFP</t>
+    <t>MNF</t>
+  </si>
+  <si>
+    <t>MPN</t>
   </si>
   <si>
     <t>Sim.Name</t>
@@ -352,7 +352,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.1+dfsg-1</t>
+    <t>8.0.4+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -454,6 +454,9 @@
     <t>USB_B_Lumberg_2411_02_Horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve"> ~</t>
+  </si>
+  <si>
     <t>TE Connectivity AMP Connectors</t>
   </si>
   <si>
@@ -524,6 +527,9 @@
   </si>
   <si>
     <t>ABM3-16.000MHZ-B2-T</t>
+  </si>
+  <si>
+    <t>Columns colors</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -2363,16 +2369,16 @@
         <v>120</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -2401,10 +2407,10 @@
         <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>89</v>
@@ -2454,10 +2460,10 @@
         <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>89</v>
@@ -2501,19 +2507,19 @@
         <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>27</v>
@@ -2528,25 +2534,25 @@
         <v>127</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2554,19 +2560,19 @@
         <v>73</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>17</v>
@@ -2581,10 +2587,10 @@
         <v>121</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>26</v>
@@ -2614,33 +2620,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>168</v>
+      <c r="A1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
+      <c r="A2" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>170</v>
+      <c r="A3" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>171</v>
+      <c r="A4" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -352,7 +352,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.5+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -711,10 +711,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1071975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,7 +741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,10 +763,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="173">
   <si>
     <t>Row</t>
   </si>
@@ -352,7 +352,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.5+1</t>
+    <t>8.0.8+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>USB_B_Lumberg_2411_02_Horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ~</t>
   </si>
   <si>
     <t>TE Connectivity AMP Connectors</t>
@@ -711,10 +708,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1071975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,7 +738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,10 +760,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>90900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,16 +2366,16 @@
         <v>120</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>127</v>
       </c>
       <c r="K13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>26</v>
@@ -2407,10 +2404,10 @@
         <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>89</v>
@@ -2460,10 +2457,10 @@
         <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>89</v>
@@ -2507,19 +2504,19 @@
         <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>27</v>
@@ -2534,25 +2531,25 @@
         <v>127</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="P16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2560,19 +2557,19 @@
         <v>73</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>17</v>
@@ -2587,10 +2584,10 @@
         <v>121</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>26</v>
@@ -2631,27 +2628,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -52,10 +52,10 @@
     <t>Config</t>
   </si>
   <si>
-    <t>MNF</t>
-  </si>
-  <si>
-    <t>MPN</t>
+    <t>MFN</t>
+  </si>
+  <si>
+    <t>MFP</t>
   </si>
   <si>
     <t>Sim.Name</t>
@@ -340,19 +340,19 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>WIP</t>
+    <t>r1</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>Today</t>
+    <t>2020-09-09</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.8+1</t>
+    <t>9.0.0</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/BoM/Generic/t1-bom.xlsx
+++ b/BoM/Generic/t1-bom.xlsx
@@ -352,7 +352,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>9.0.0</t>
+    <t>9.0.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
